--- a/Minimarket_GUI/Plantillas/Plantilla_ReporteGuia.xlsx
+++ b/Minimarket_GUI/Plantillas/Plantilla_ReporteGuia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desarrollo de aplicacionesII- V2024\Minimarket\Minimarket_GUI\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,20 +56,20 @@
     <t>REPORTE DE GUIAS DE REMISIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha : </t>
-  </si>
-  <si>
     <t>Cantidad - UM</t>
   </si>
   <si>
     <t>Dirección de partida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA : </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +96,14 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -264,9 +272,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -276,12 +281,191 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -294,182 +478,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -552,17 +560,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B7:L20" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="B7:L20"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Nº de Guia" dataDxfId="0"/>
-    <tableColumn id="2" name="Empresa - Proveedor" dataDxfId="1"/>
-    <tableColumn id="3" name="Ruc" dataDxfId="10"/>
-    <tableColumn id="4" name="Producto" dataDxfId="9"/>
-    <tableColumn id="5" name="Cantidad - UM" dataDxfId="8"/>
-    <tableColumn id="7" name="Dirección de partida" dataDxfId="7"/>
-    <tableColumn id="8" name="Dirección de destino" dataDxfId="6"/>
-    <tableColumn id="9" name="Empresa de Transporte - Placa" dataDxfId="5"/>
-    <tableColumn id="11" name="Fecha de Ingreso" dataDxfId="4"/>
-    <tableColumn id="12" name="Fecha de Recepción" dataDxfId="3"/>
-    <tableColumn id="13" name="Usuario de registro" dataDxfId="2"/>
+    <tableColumn id="1" name="Nº de Guia" dataDxfId="10"/>
+    <tableColumn id="2" name="Empresa - Proveedor" dataDxfId="9"/>
+    <tableColumn id="3" name="Ruc" dataDxfId="8"/>
+    <tableColumn id="4" name="Producto" dataDxfId="7"/>
+    <tableColumn id="5" name="Cantidad - UM" dataDxfId="6"/>
+    <tableColumn id="7" name="Dirección de partida" dataDxfId="5"/>
+    <tableColumn id="8" name="Dirección de destino" dataDxfId="4"/>
+    <tableColumn id="9" name="Empresa de Transporte - Placa" dataDxfId="3"/>
+    <tableColumn id="11" name="Fecha de Ingreso" dataDxfId="2"/>
+    <tableColumn id="12" name="Fecha de Recepción" dataDxfId="1"/>
+    <tableColumn id="13" name="Usuario de registro" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -868,7 +876,7 @@
   <dimension ref="B2:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,12 +907,10 @@
       <c r="K2" s="14"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="16">
-        <v>45470</v>
-      </c>
+      <c r="B3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15"/>
     </row>
     <row r="7" spans="2:12" ht="21" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
@@ -920,10 +926,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>7</v>
@@ -942,7 +948,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -955,7 +961,7 @@
       <c r="L8" s="12"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -968,7 +974,7 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -981,7 +987,7 @@
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -994,7 +1000,7 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1007,7 +1013,7 @@
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1020,7 +1026,7 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1033,7 +1039,7 @@
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1046,7 +1052,7 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1059,7 +1065,7 @@
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1072,7 +1078,7 @@
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1085,7 +1091,7 @@
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1098,7 +1104,7 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
